--- a/gamedaily/topic_fix.xlsx
+++ b/gamedaily/topic_fix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mydesk\git\game1night\2\gamedaily\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F9142C-7632-4348-8E95-9A12697175E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B2B7F8-81DA-4ED4-9A2B-5FB0C5B0AC2C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE488E7B-B399-4947-B8FB-F010B48E0251}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="86">
   <si>
     <t>关键词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -345,6 +345,26 @@
   </si>
   <si>
     <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入榜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -719,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B629B35-FB0A-463B-8067-A275E1A6B003}">
-  <dimension ref="B1:F62"/>
+  <dimension ref="B1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1216,52 +1236,52 @@
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E33" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F33" s="2" t="str">
         <f>"'"&amp;C33&amp;"': ['"&amp;D33&amp;"', "&amp;E33&amp;"],"</f>
-        <v>'曾经': ['历史', 7],</v>
+        <v>'%': ['数据', 4],</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="E34" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F34" s="2" t="str">
         <f>"'"&amp;C34&amp;"': ['"&amp;D34&amp;"', "&amp;E34&amp;"],"</f>
-        <v>'年': ['历史', 7],</v>
+        <v>'分析': ['数据', 4],</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E35" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F35" s="2" t="str">
         <f>"'"&amp;C35&amp;"': ['"&amp;D35&amp;"', "&amp;E35&amp;"],"</f>
-        <v>'月': ['历史', 7],</v>
+        <v>'环比': ['数据', 4],</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>26</v>
@@ -1271,42 +1291,42 @@
       </c>
       <c r="F36" s="2" t="str">
         <f>"'"&amp;C36&amp;"': ['"&amp;D36&amp;"', "&amp;E36&amp;"],"</f>
-        <v>'%': ['数据', 4],</v>
+        <v>'减少': ['数据', 4],</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C37" s="1" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="E37" s="1">
         <v>4</v>
       </c>
       <c r="F37" s="2" t="str">
         <f>"'"&amp;C37&amp;"': ['"&amp;D37&amp;"', "&amp;E37&amp;"],"</f>
-        <v>'分析': ['数据', 4],</v>
+        <v>'同比': ['数据', 4],</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="E38" s="1">
         <v>4</v>
       </c>
       <c r="F38" s="2" t="str">
         <f>"'"&amp;C38&amp;"': ['"&amp;D38&amp;"', "&amp;E38&amp;"],"</f>
-        <v>'环比': ['数据', 4],</v>
+        <v>'研究': ['数据', 4],</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>26</v>
@@ -1316,72 +1336,72 @@
       </c>
       <c r="F39" s="2" t="str">
         <f>"'"&amp;C39&amp;"': ['"&amp;D39&amp;"', "&amp;E39&amp;"],"</f>
-        <v>'减少': ['数据', 4],</v>
+        <v>'增长': ['数据', 4],</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="E40" s="1">
         <v>4</v>
       </c>
       <c r="F40" s="2" t="str">
         <f>"'"&amp;C40&amp;"': ['"&amp;D40&amp;"', "&amp;E40&amp;"],"</f>
-        <v>'同比': ['数据', 4],</v>
+        <v>'票房': ['数据', 4],</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E41" s="1">
         <v>4</v>
       </c>
       <c r="F41" s="2" t="str">
         <f>"'"&amp;C41&amp;"': ['"&amp;D41&amp;"', "&amp;E41&amp;"],"</f>
-        <v>'研究': ['数据', 4],</v>
+        <v>'收入榜': ['数据', 4],</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="E42" s="1">
         <v>4</v>
       </c>
       <c r="F42" s="2" t="str">
         <f>"'"&amp;C42&amp;"': ['"&amp;D42&amp;"', "&amp;E42&amp;"],"</f>
-        <v>'增长': ['数据', 4],</v>
+        <v>'排名': ['数据', 4],</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="E43" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F43" s="2" t="str">
         <f>"'"&amp;C43&amp;"': ['"&amp;D43&amp;"', "&amp;E43&amp;"],"</f>
-        <v>'票房': ['数据', 4],</v>
+        <v>'？': ['讨论', 5],</v>
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>27</v>
@@ -1391,12 +1411,12 @@
       </c>
       <c r="F44" s="2" t="str">
         <f>"'"&amp;C44&amp;"': ['"&amp;D44&amp;"', "&amp;E44&amp;"],"</f>
-        <v>'？': ['讨论', 5],</v>
+        <v>'?': ['讨论', 5],</v>
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>27</v>
@@ -1406,12 +1426,12 @@
       </c>
       <c r="F45" s="2" t="str">
         <f>"'"&amp;C45&amp;"': ['"&amp;D45&amp;"', "&amp;E45&amp;"],"</f>
-        <v>'?': ['讨论', 5],</v>
+        <v>'吗': ['讨论', 5],</v>
       </c>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>27</v>
@@ -1421,12 +1441,12 @@
       </c>
       <c r="F46" s="2" t="str">
         <f>"'"&amp;C46&amp;"': ['"&amp;D46&amp;"', "&amp;E46&amp;"],"</f>
-        <v>'吗': ['讨论', 5],</v>
+        <v>'如何': ['讨论', 5],</v>
       </c>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>27</v>
@@ -1436,12 +1456,12 @@
       </c>
       <c r="F47" s="2" t="str">
         <f>"'"&amp;C47&amp;"': ['"&amp;D47&amp;"', "&amp;E47&amp;"],"</f>
-        <v>'如何': ['讨论', 5],</v>
+        <v>'什么': ['讨论', 5],</v>
       </c>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>27</v>
@@ -1451,27 +1471,27 @@
       </c>
       <c r="F48" s="2" t="str">
         <f>"'"&amp;C48&amp;"': ['"&amp;D48&amp;"', "&amp;E48&amp;"],"</f>
-        <v>'什么': ['讨论', 5],</v>
+        <v>'怎么': ['讨论', 5],</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E49" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F49" s="2" t="str">
         <f>"'"&amp;C49&amp;"': ['"&amp;D49&amp;"', "&amp;E49&amp;"],"</f>
-        <v>'怎么': ['讨论', 5],</v>
+        <v>'登陆': ['发行', 6],</v>
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>31</v>
@@ -1481,12 +1501,12 @@
       </c>
       <c r="F50" s="2" t="str">
         <f>"'"&amp;C50&amp;"': ['"&amp;D50&amp;"', "&amp;E50&amp;"],"</f>
-        <v>'登陆': ['发行', 6],</v>
+        <v>'发布': ['发行', 6],</v>
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>31</v>
@@ -1496,42 +1516,42 @@
       </c>
       <c r="F51" s="2" t="str">
         <f>"'"&amp;C51&amp;"': ['"&amp;D51&amp;"', "&amp;E51&amp;"],"</f>
-        <v>'发布': ['发行', 6],</v>
+        <v>'发售': ['发行', 6],</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="E52" s="1">
         <v>6</v>
       </c>
       <c r="F52" s="2" t="str">
         <f>"'"&amp;C52&amp;"': ['"&amp;D52&amp;"', "&amp;E52&amp;"],"</f>
-        <v>'发售': ['发行', 6],</v>
+        <v>'曝光': ['发行', 6],</v>
       </c>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="E53" s="1">
         <v>6</v>
       </c>
       <c r="F53" s="2" t="str">
         <f>"'"&amp;C53&amp;"': ['"&amp;D53&amp;"', "&amp;E53&amp;"],"</f>
-        <v>'曝光': ['发行', 6],</v>
+        <v>'热搜': ['发行', 6],</v>
       </c>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>31</v>
@@ -1541,57 +1561,57 @@
       </c>
       <c r="F54" s="2" t="str">
         <f>"'"&amp;C54&amp;"': ['"&amp;D54&amp;"', "&amp;E54&amp;"],"</f>
-        <v>'热搜': ['发行', 6],</v>
+        <v>'上线': ['发行', 6],</v>
       </c>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="E55" s="1">
         <v>6</v>
       </c>
       <c r="F55" s="2" t="str">
         <f>"'"&amp;C55&amp;"': ['"&amp;D55&amp;"', "&amp;E55&amp;"],"</f>
-        <v>'上线': ['发行', 6],</v>
+        <v>'试玩': ['发行', 6],</v>
       </c>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="E56" s="1">
         <v>6</v>
       </c>
       <c r="F56" s="2" t="str">
         <f>"'"&amp;C56&amp;"': ['"&amp;D56&amp;"', "&amp;E56&amp;"],"</f>
-        <v>'试玩': ['发行', 6],</v>
+        <v>'新游': ['发行', 6],</v>
       </c>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="E57" s="1">
         <v>6</v>
       </c>
       <c r="F57" s="2" t="str">
         <f>"'"&amp;C57&amp;"': ['"&amp;D57&amp;"', "&amp;E57&amp;"],"</f>
-        <v>'新游': ['发行', 6],</v>
+        <v>'预告': ['发行', 6],</v>
       </c>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>66</v>
@@ -1601,72 +1621,117 @@
       </c>
       <c r="F58" s="2" t="str">
         <f>"'"&amp;C58&amp;"': ['"&amp;D58&amp;"', "&amp;E58&amp;"],"</f>
-        <v>'预告': ['发行', 6],</v>
+        <v>'预热': ['发行', 6],</v>
       </c>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E59" s="1">
         <v>6</v>
       </c>
       <c r="F59" s="2" t="str">
         <f>"'"&amp;C59&amp;"': ['"&amp;D59&amp;"', "&amp;E59&amp;"],"</f>
-        <v>'预热': ['发行', 6],</v>
+        <v>'开启': ['发行', 6],</v>
       </c>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="E60" s="1">
         <v>6</v>
       </c>
       <c r="F60" s="2" t="str">
         <f>"'"&amp;C60&amp;"': ['"&amp;D60&amp;"', "&amp;E60&amp;"],"</f>
-        <v>'开启': ['发行', 6],</v>
+        <v>'测试': ['发行', 6],</v>
       </c>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="E61" s="1">
         <v>6</v>
       </c>
       <c r="F61" s="2" t="str">
         <f>"'"&amp;C61&amp;"': ['"&amp;D61&amp;"', "&amp;E61&amp;"],"</f>
-        <v>'测试': ['发行', 6],</v>
+        <v>'预约': ['发行', 6],</v>
       </c>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E62" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F62" s="2" t="str">
         <f>"'"&amp;C62&amp;"': ['"&amp;D62&amp;"', "&amp;E62&amp;"],"</f>
+        <v>'曾经': ['历史', 7],</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" s="1">
+        <v>7</v>
+      </c>
+      <c r="F63" s="2" t="str">
+        <f>"'"&amp;C63&amp;"': ['"&amp;D63&amp;"', "&amp;E63&amp;"],"</f>
+        <v>'年': ['历史', 7],</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" s="1">
+        <v>7</v>
+      </c>
+      <c r="F64" s="2" t="str">
+        <f>"'"&amp;C64&amp;"': ['"&amp;D64&amp;"', "&amp;E64&amp;"],"</f>
+        <v>'月': ['历史', 7],</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" s="1">
+        <v>8</v>
+      </c>
+      <c r="F65" s="2" t="str">
+        <f>"'"&amp;C65&amp;"': ['"&amp;D65&amp;"', "&amp;E65&amp;"],"</f>
         <v>'《': ['作品', 8],</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:F20" xr:uid="{4758F983-06CD-41D5-B024-F66B59648892}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F62">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F65">
       <sortCondition ref="E1:E20"/>
     </sortState>
   </autoFilter>
